--- a/doc/test.xlsx
+++ b/doc/test.xlsx
@@ -1154,7 +1154,6 @@
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2"/>
       <c r="D2" s="3">
         <v>3.123</v>
       </c>
@@ -1163,8 +1162,6 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
